--- a/TestGit/src/main/java/SeleniumExcel.xlsx
+++ b/TestGit/src/main/java/SeleniumExcel.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Shubham\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Shubham\Desktop\Gitcode\TestGit\TestGit\src\main\java\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{418856E2-FF6A-49F9-BD2E-6553730B9F68}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2ADE71F5-5892-4EBC-8828-2CFB5202C608}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4470" xr2:uid="{37DC1FCF-43AD-40A4-87E8-3E4EA11A1777}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{37DC1FCF-43AD-40A4-87E8-3E4EA11A1777}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,9 +36,6 @@
     <t>Yamaha</t>
   </si>
   <si>
-    <t>Suzuki</t>
-  </si>
-  <si>
     <t>Bike</t>
   </si>
   <si>
@@ -48,7 +45,10 @@
     <t>R100</t>
   </si>
   <si>
-    <t>Apache</t>
+    <t>Ram</t>
+  </si>
+  <si>
+    <t>Shyam</t>
   </si>
 </sst>
 </file>
@@ -403,7 +403,7 @@
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -413,7 +413,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -421,7 +421,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -429,12 +429,12 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B4" t="s">
         <v>7</v>
